--- a/GameExcel/人物信息表.xlsx
+++ b/GameExcel/人物信息表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,9 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小明2</t>
-  </si>
-  <si>
     <t>小明3</t>
   </si>
   <si>
@@ -136,6 +133,18 @@
   </si>
   <si>
     <t>joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,26 +484,29 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -508,25 +520,31 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -542,30 +560,33 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="1">
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>52</v>
@@ -574,66 +595,69 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>54</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>56</v>
@@ -642,32 +666,38 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>58</v>
@@ -676,32 +706,35 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
@@ -710,7 +743,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
